--- a/backend/data/flashcards.xlsx
+++ b/backend/data/flashcards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ccc\dom-js-menu-pseudo-login\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA61F3-1238-4DED-8D7F-CD6D3B62397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A77BD5B-21C4-42A6-A70B-ADE75EBDA069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2745" windowWidth="5535" windowHeight="8490" xr2:uid="{CFEFF5FD-826D-4CDC-BA8A-E955DC770035}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>book</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>das Fahrrad</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>die Küche</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD60937-556A-4C1B-9860-0DF356036B71}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +522,14 @@
       </c>
       <c r="B6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/flashcards.xlsx
+++ b/backend/data/flashcards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ccc\dom-js-menu-pseudo-login\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A77BD5B-21C4-42A6-A70B-ADE75EBDA069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B160A5D3-7CF5-439E-ACCC-D56A312A59BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="5535" windowHeight="8490" xr2:uid="{CFEFF5FD-826D-4CDC-BA8A-E955DC770035}"/>
+    <workbookView xWindow="6480" yWindow="990" windowWidth="5535" windowHeight="8490" xr2:uid="{CFEFF5FD-826D-4CDC-BA8A-E955DC770035}"/>
   </bookViews>
   <sheets>
     <sheet name="flashcards" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>book</t>
   </si>
@@ -82,6 +82,39 @@
   </si>
   <si>
     <t>die Küche</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>der Rechner</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>das Waschbecken</t>
+  </si>
+  <si>
+    <t>nice word</t>
+  </si>
+  <si>
+    <t>also velo</t>
+  </si>
+  <si>
+    <t>hard word</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>das Zettel</t>
+  </si>
+  <si>
+    <t>useful word</t>
   </si>
 </sst>
 </file>
@@ -465,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD60937-556A-4C1B-9860-0DF356036B71}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,23 +509,29 @@
     <col min="2" max="2" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -500,7 +539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -508,7 +547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -516,20 +555,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/flashcards.xlsx
+++ b/backend/data/flashcards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ccc\dom-js-menu-pseudo-login\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bbb\_TESTS\npm-excel-test\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B160A5D3-7CF5-439E-ACCC-D56A312A59BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534AB73D-9BEB-433C-91C1-FCE8E7F89E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="990" windowWidth="5535" windowHeight="8490" xr2:uid="{CFEFF5FD-826D-4CDC-BA8A-E955DC770035}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{CFEFF5FD-826D-4CDC-BA8A-E955DC770035}"/>
   </bookViews>
   <sheets>
     <sheet name="flashcards" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>book</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>useful word</t>
+  </si>
+  <si>
+    <t>scissors</t>
+  </si>
+  <si>
+    <t>die Schere</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -498,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD60937-556A-4C1B-9860-0DF356036B71}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +611,17 @@
       </c>
       <c r="C10" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
